--- a/Regions.xlsx
+++ b/Regions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosyanez/Google Drive/GitHub/Australian_Polygons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419B7ED0-CD8B-4244-B348-2939CC0E69A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9042D1F5-6CBC-3247-922A-0F463A59AE93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1380" windowWidth="15820" windowHeight="17440" xr2:uid="{6ED09712-32C5-094B-A15B-C6AA6082A294}"/>
+    <workbookView xWindow="860" yWindow="1380" windowWidth="20260" windowHeight="17440" xr2:uid="{6ED09712-32C5-094B-A15B-C6AA6082A294}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="219">
   <si>
     <t>LGA</t>
   </si>
@@ -683,6 +683,18 @@
   </si>
   <si>
     <t>Queanbeyan–Palerang</t>
+  </si>
+  <si>
+    <t>Gold Coast</t>
+  </si>
+  <si>
+    <t>Wodonga</t>
+  </si>
+  <si>
+    <t>Gold Coast-Tweed Heads</t>
+  </si>
+  <si>
+    <t>Albury-Wodonga</t>
   </si>
 </sst>
 </file>
@@ -1035,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7656727E-B0AD-CC46-B7A7-CE71CD0F90E7}">
-  <dimension ref="A1:D194"/>
+  <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3180,6 +3192,50 @@
       </c>
       <c r="C194" s="1" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/Regions.xlsx
+++ b/Regions.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosyanez/Google Drive/GitHub/Australian_Polygons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9042D1F5-6CBC-3247-922A-0F463A59AE93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E22162E-5A3E-374D-A888-12D193D1CD5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1380" windowWidth="20260" windowHeight="17440" xr2:uid="{6ED09712-32C5-094B-A15B-C6AA6082A294}"/>
+    <workbookView xWindow="860" yWindow="1380" windowWidth="25000" windowHeight="17440" xr2:uid="{6ED09712-32C5-094B-A15B-C6AA6082A294}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$80</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="203">
   <si>
     <t>LGA</t>
   </si>
@@ -211,18 +211,6 @@
     <t xml:space="preserve">Camden </t>
   </si>
   <si>
-    <t xml:space="preserve">Edward River </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murray River </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murrumbidgee </t>
-  </si>
-  <si>
     <t xml:space="preserve">Snowy Valleys </t>
   </si>
   <si>
@@ -277,39 +265,6 @@
     <t xml:space="preserve">Warrumbungle </t>
   </si>
   <si>
-    <t xml:space="preserve">Balranald </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berrigan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coolamon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greater Hume </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hay </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junee </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leeton </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lockhart </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrandera </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temora </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wentworth </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bega Valley </t>
   </si>
   <si>
@@ -332,9 +287,6 @@
   </si>
   <si>
     <t>Albury</t>
-  </si>
-  <si>
-    <t>Griffith</t>
   </si>
   <si>
     <t>Wagga Wagga</t>
@@ -1047,16 +999,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7656727E-B0AD-CC46-B7A7-CE71CD0F90E7}">
-  <dimension ref="A1:D198"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1391,7 +1344,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
@@ -1438,7 +1391,7 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C35" t="s">
         <v>43</v>
@@ -1457,7 +1410,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>9</v>
@@ -1468,7 +1421,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>9</v>
@@ -1479,7 +1432,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>9</v>
@@ -1490,7 +1443,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>9</v>
@@ -1512,7 +1465,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>9</v>
@@ -1523,7 +1476,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>9</v>
@@ -1534,7 +1487,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>9</v>
@@ -1545,7 +1498,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>9</v>
@@ -1556,7 +1509,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>9</v>
@@ -1567,7 +1520,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>9</v>
@@ -1578,7 +1531,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>9</v>
@@ -1589,7 +1542,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>9</v>
@@ -1600,7 +1553,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>9</v>
@@ -1611,7 +1564,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>9</v>
@@ -1622,7 +1575,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>9</v>
@@ -1633,7 +1586,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>9</v>
@@ -1644,7 +1597,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>9</v>
@@ -1655,167 +1608,167 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>50</v>
+      <c r="C55" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1826,1050 +1779,1050 @@
         <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>206</v>
+        <v>45</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C84" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C84" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>210</v>
+        <v>99</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>99</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="B100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
         <v>116</v>
       </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="B109" s="1" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>119</v>
-      </c>
       <c r="B112" s="1" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>120</v>
+      <c r="A115" t="s">
+        <v>125</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>121</v>
+      <c r="A116" t="s">
+        <v>130</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>61</v>
+      <c r="A117" t="s">
+        <v>130</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>99</v>
+      <c r="A118" t="s">
+        <v>128</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>97</v>
+      <c r="A119" t="s">
+        <v>129</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>122</v>
+      <c r="A120" t="s">
+        <v>132</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+      <c r="A121" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="C121" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>127</v>
+      <c r="A122" t="s">
+        <v>134</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>129</v>
+      <c r="A123" t="s">
+        <v>135</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>130</v>
+      <c r="A124" t="s">
+        <v>136</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>212</v>
+      <c r="A125" t="s">
+        <v>197</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
+        <v>137</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>133</v>
+      <c r="A127" t="s">
+        <v>138</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>134</v>
+      <c r="A128" t="s">
+        <v>140</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>135</v>
+      <c r="A129" t="s">
+        <v>141</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>137</v>
+      <c r="A130" t="s">
+        <v>142</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>138</v>
+      <c r="A131" t="s">
+        <v>143</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>133</v>
+      <c r="A132" t="s">
+        <v>144</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>144</v>
+      <c r="A138" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>145</v>
+      <c r="A139" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>148</v>
+      <c r="A140" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>149</v>
+      <c r="A141" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>150</v>
+      <c r="A142" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="A143" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>152</v>
+      <c r="A144" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>213</v>
+      <c r="A145" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>153</v>
+      <c r="A146" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>154</v>
+      <c r="A147" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>156</v>
+      <c r="A148" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>157</v>
+      <c r="A149" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="A150" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>159</v>
+      <c r="A151" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>160</v>
+      <c r="A152" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>161</v>
+      <c r="A153" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>162</v>
+      <c r="A154" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>163</v>
+      <c r="A155" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>164</v>
+      <c r="A156" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>165</v>
+      <c r="A157" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>174</v>
@@ -2877,10 +2830,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>174</v>
@@ -2888,10 +2841,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>174</v>
@@ -2899,10 +2852,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>174</v>
@@ -2910,336 +2863,116 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>218</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C100" xr:uid="{3CE95C60-7650-8A43-B925-D2C76733CE77}"/>
+  <autoFilter ref="A1:C80" xr:uid="{3CE95C60-7650-8A43-B925-D2C76733CE77}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3256,32 +2989,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -3296,32 +3029,32 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
